--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BFB2CE-2593-4D68-BE37-BBAE3DD3AE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -39,12 +40,21 @@
   </si>
   <si>
     <t>trial_run_date</t>
+  </si>
+  <si>
+    <t>Solapur</t>
+  </si>
+  <si>
+    <t>eminating_lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,22 +369,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,11 +396,14 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -395,13 +411,51 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>800</v>
-      </c>
-      <c r="D2">
-        <v>1600</v>
+        <v>75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BFB2CE-2593-4D68-BE37-BBAE3DD3AE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C0926-D42F-4B08-ACFC-9A14EB0F5437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>Solapur</t>
   </si>
   <si>
-    <t>eminating_lines</t>
+    <t>emanating_lines</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C0926-D42F-4B08-ACFC-9A14EB0F5437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5314E6DC-F2A5-412F-816D-9A7215238A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Solapur</t>
-  </si>
-  <si>
-    <t>emanating_lines</t>
   </si>
 </sst>
 </file>
@@ -370,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,11 +379,10 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,11 +395,8 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -416,11 +409,8 @@
       <c r="D2" s="2">
         <v>43619</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -433,11 +423,8 @@
       <c r="D3" s="2">
         <v>43618</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -449,9 +436,6 @@
       </c>
       <c r="D4" s="2">
         <v>43618</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5314E6DC-F2A5-412F-816D-9A7215238A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1915A-4041-40E1-A264-D144C437DEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,57 @@
   </si>
   <si>
     <t>Solapur</t>
+  </si>
+  <si>
+    <t>CGPL</t>
+  </si>
+  <si>
+    <t>Mouda</t>
+  </si>
+  <si>
+    <t>Sasan</t>
+  </si>
+  <si>
+    <t>NSPCL</t>
+  </si>
+  <si>
+    <t>Gandhar</t>
+  </si>
+  <si>
+    <t>Kawas</t>
+  </si>
+  <si>
+    <t>Sipat_Stage_1</t>
+  </si>
+  <si>
+    <t>Sipat_Stage_2</t>
+  </si>
+  <si>
+    <t>VSTPS_Stage_1</t>
+  </si>
+  <si>
+    <t>VSTPS_Stage_2</t>
+  </si>
+  <si>
+    <t>VSTPS_Stage_3</t>
+  </si>
+  <si>
+    <t>VSTPS_Stage_4</t>
+  </si>
+  <si>
+    <t>VSTPS_Stage_5</t>
+  </si>
+  <si>
+    <t>KSTPS_Stage_1</t>
+  </si>
+  <si>
+    <t>KSTPS_Stage_2</t>
+  </si>
+  <si>
+    <t>KSTPS_Stage_3</t>
+  </si>
+  <si>
+    <t>Mouda_Stage_2</t>
   </si>
 </sst>
 </file>
@@ -367,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -438,6 +489,692 @@
         <v>43618</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>35</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>35</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>35</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1915A-4041-40E1-A264-D144C437DEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6254C5-5B3B-4138-91B2-96536A593BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>43618</v>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>43618</v>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6254C5-5B3B-4138-91B2-96536A593BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF4F5B-8D26-449D-8E73-FF7C638D95BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF4F5B-8D26-449D-8E73-FF7C638D95BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B3D74-B5A2-4AEF-9E56-53D3B1705A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,117 @@
   </si>
   <si>
     <t>Mouda_Stage_2</t>
+  </si>
+  <si>
+    <t>cod_date</t>
+  </si>
+  <si>
+    <t>SKS</t>
+  </si>
+  <si>
+    <t>TRN</t>
+  </si>
+  <si>
+    <t>RKM</t>
+  </si>
+  <si>
+    <t>KSK</t>
+  </si>
+  <si>
+    <t>EMCO</t>
+  </si>
+  <si>
+    <t>MB_POWER</t>
+  </si>
+  <si>
+    <t>JHABUA_POWER</t>
+  </si>
+  <si>
+    <t>KORADI</t>
+  </si>
+  <si>
+    <t>MARWA</t>
+  </si>
+  <si>
+    <t>SPECTRUM</t>
+  </si>
+  <si>
+    <t>JPL_II</t>
+  </si>
+  <si>
+    <t>MCCPL</t>
+  </si>
+  <si>
+    <t>BALCO</t>
+  </si>
+  <si>
+    <t>SIKKA</t>
+  </si>
+  <si>
+    <t>DB_POWER</t>
+  </si>
+  <si>
+    <t>TIRODA</t>
+  </si>
+  <si>
+    <t>DHUVARAN</t>
+  </si>
+  <si>
+    <t>DHARIWAL</t>
+  </si>
+  <si>
+    <t>JP_NIGRIE</t>
+  </si>
+  <si>
+    <t>TIRORA</t>
+  </si>
+  <si>
+    <t>DGEN</t>
+  </si>
+  <si>
+    <t>SINGHAJI</t>
+  </si>
+  <si>
+    <t>AMARAVATI</t>
+  </si>
+  <si>
+    <t>UNOSUGEN</t>
+  </si>
+  <si>
+    <t>VIPL</t>
+  </si>
+  <si>
+    <t>BHUSAWAL</t>
+  </si>
+  <si>
+    <t>SATPURA</t>
+  </si>
+  <si>
+    <t>KORBA_WEST</t>
+  </si>
+  <si>
+    <t>VADINAR</t>
+  </si>
+  <si>
+    <t>JP_BINA</t>
+  </si>
+  <si>
+    <t>UKAI</t>
+  </si>
+  <si>
+    <t>IEPL</t>
+  </si>
+  <si>
+    <t>JAIGARH</t>
+  </si>
+  <si>
+    <t>APL_MUNDRA</t>
+  </si>
+  <si>
+    <t>KHAPARKHEDA</t>
+  </si>
+  <si>
+    <t>JSW</t>
   </si>
 </sst>
 </file>
@@ -132,12 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,22 +531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +559,11 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,8 +576,11 @@
       <c r="D2" s="2">
         <v>43619</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -474,8 +593,11 @@
       <c r="D3" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -488,8 +610,11 @@
       <c r="D4" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -502,8 +627,11 @@
       <c r="D5" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>40916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -516,8 +644,11 @@
       <c r="D6" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -530,8 +661,11 @@
       <c r="D7" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>41209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -544,8 +678,11 @@
       <c r="D8" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>41271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -558,8 +695,11 @@
       <c r="D9" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>41337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -572,8 +712,11 @@
       <c r="D10" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>41007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -586,8 +729,11 @@
       <c r="D11" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>41728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -600,8 +746,11 @@
       <c r="D12" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -614,8 +763,11 @@
       <c r="D13" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -628,8 +780,11 @@
       <c r="D14" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>41786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -642,8 +797,11 @@
       <c r="D15" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>41667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -656,8 +814,11 @@
       <c r="D16" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>41502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -670,8 +831,11 @@
       <c r="D17" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>41741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -684,8 +848,11 @@
       <c r="D18" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>41999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -698,8 +865,11 @@
       <c r="D19" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>42090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -713,7 +883,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -727,7 +897,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -741,7 +911,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -755,7 +925,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -769,7 +939,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -783,7 +953,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -797,7 +967,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -811,7 +981,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -825,7 +995,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -838,8 +1008,11 @@
       <c r="D29" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
+        <v>40716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -852,8 +1025,11 @@
       <c r="D30" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <v>40879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -866,8 +1042,11 @@
       <c r="D31" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -881,7 +1060,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -895,7 +1074,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -909,7 +1088,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -923,7 +1102,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -937,7 +1116,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -951,7 +1130,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -965,7 +1144,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -979,7 +1158,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -993,7 +1172,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1186,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1200,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1214,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1048,8 +1227,11 @@
       <c r="D44" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4">
+        <v>41073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1062,8 +1244,11 @@
       <c r="D45" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1076,8 +1261,11 @@
       <c r="D46" s="2">
         <v>43618</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1279,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1293,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1307,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1321,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1335,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1349,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1173,6 +1361,857 @@
       </c>
       <c r="D53" s="2">
         <v>43618</v>
+      </c>
+      <c r="E53" s="3">
+        <v>40507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>42335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>41877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>41253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>42144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3">
+        <v>42355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>41633</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>42459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3">
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>42442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3">
+        <v>42044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>42366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>42455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>41149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3">
+        <v>41743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>41780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>41853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>41885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>41304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>41803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="E95" s="3">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>41651</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="E97" s="3">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3">
+        <v>41707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>41499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>42001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>41336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="E102" s="3">
+        <v>41687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="E103" s="3">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="E104" s="3">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="E105" s="3">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>41368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>41726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3">
+        <v>41398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3">
+        <v>40674</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="E110" s="3">
+        <v>41642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3">
+        <v>41327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="E112" s="3">
+        <v>41714</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="E114" s="3">
+        <v>41351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>40871</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="E116" s="3">
+        <v>41002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>41087</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="E118" s="3">
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="E120" s="3">
+        <v>40662</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>40537</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="E122" s="3">
+        <v>40389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>40697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3">
+        <v>40818</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3">
+        <v>40948</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="E126" s="3">
+        <v>40973</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="E127" s="3">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>40414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="E129" s="3">
+        <v>40521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>59</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3">
+        <v>40824</v>
       </c>
     </row>
   </sheetData>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B3D74-B5A2-4AEF-9E56-53D3B1705A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D52161-292A-47A7-81BB-DE21491494C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>JSW</t>
+  </si>
+  <si>
+    <t>Lara</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,6 +2217,23 @@
         <v>40824</v>
       </c>
     </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>60</v>
+      </c>
+      <c r="D131" s="3">
+        <v>43523</v>
+      </c>
+      <c r="E131" s="3">
+        <v>43739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dbHelpers/generator_unit_info.xlsx
+++ b/dbHelpers/generator_unit_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\NodeJS Projects\ine_info_node_webhook\dbHelpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D52161-292A-47A7-81BB-DE21491494C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F1B5BA-D45D-472F-AE6F-94285A35DD7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="2">
-        <v>43619</v>
+        <v>43424</v>
       </c>
       <c r="E2" s="3">
         <v>43617</v>
